--- a/COMP3217CW2Input.xlsx
+++ b/COMP3217CW2Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imoge\OneDrive\Documents\Uni Files\SCPS\comp3217\COMP321720212022CW2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imoge\OneDrive\Documents\Uni Files\SCPS\coursework2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256292B9-C87E-4FD4-9CCB-7F777EB8718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C8FF0-6D30-4916-AD4E-E599B0211FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User &amp; Task ID" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D33648-2EBE-814D-9D1C-C2A4EAB0BD48}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
